--- a/2020/primary/Kimble TX REPUBLICAN PRIMARY MAR 3, 2020.xlsx
+++ b/2020/primary/Kimble TX REPUBLICAN PRIMARY MAR 3, 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Clerk\Documents\ELECTIONS\Excel Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekwillis/code/openelections-sources-tx/2020/primary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF6E6A-E2FC-44FC-B4E4-BC02BD993030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D4450-0B5D-DA41-A219-61BB10808328}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -798,17 +798,17 @@
       <selection activeCell="S133" sqref="S133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="16" customWidth="1"/>
-    <col min="3" max="17" width="8.140625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="16" customWidth="1"/>
+    <col min="3" max="17" width="8.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -867,15 +867,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:19" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
@@ -932,11 +932,11 @@
         <v>703</v>
       </c>
       <c r="S4" s="6">
-        <f>SUM(D4,F4,H4,J4,L4,M4,O4,Q4,R4)</f>
+        <f t="shared" ref="S4:S11" si="0">SUM(D4,F4,H4,J4,L4,M4,O4,Q4,R4)</f>
         <v>1296</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>35</v>
       </c>
@@ -989,15 +989,15 @@
         <v>0</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" ref="R4:R11" si="0">SUM(C5,E5,G5,I5,K5,N5,P5)</f>
+        <f t="shared" ref="R5:R11" si="1">SUM(C5,E5,G5,I5,K5,N5,P5)</f>
         <v>12</v>
       </c>
       <c r="S5" s="6">
-        <f>SUM(D5,F5,H5,J5,L5,M5,O5,Q5,R5)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -1050,15 +1050,15 @@
         <v>0</v>
       </c>
       <c r="R6" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S6" s="6">
-        <f>SUM(D6,F6,H6,J6,L6,M6,O6,Q6,R6)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
@@ -1111,15 +1111,15 @@
         <v>0</v>
       </c>
       <c r="R7" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S7" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="S7" s="6">
-        <f>SUM(D7,F7,H7,J7,L7,M7,O7,Q7,R7)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -1172,15 +1172,15 @@
         <v>0</v>
       </c>
       <c r="R8" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S8" s="6">
-        <f>SUM(D8,F8,H8,J8,L8,M8,O8,Q8,R8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>39</v>
       </c>
@@ -1233,15 +1233,15 @@
         <v>0</v>
       </c>
       <c r="R9" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S9" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="S9" s="6">
-        <f>SUM(D9,F9,H9,J9,L9,M9,O9,Q9,R9)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>40</v>
       </c>
@@ -1294,15 +1294,15 @@
         <v>0</v>
       </c>
       <c r="R10" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S10" s="6">
-        <f>SUM(D10,F10,H10,J10,L10,M10,O10,Q10,R10)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
@@ -1355,15 +1355,15 @@
         <v>10</v>
       </c>
       <c r="R11" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="S11" s="6">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="S11" s="6">
-        <f>SUM(D11,F11,H11,J11,L11,M11,O11,Q11,R11)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>48</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1771,7 +1771,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -1847,15 +1847,15 @@
         <v>21</v>
       </c>
       <c r="R21" s="6">
-        <f>SUM(C21,E21,G21,I21,K21,N21,P21,B21)</f>
+        <f t="shared" ref="R21:R30" si="2">SUM(C21,E21,G21,I21,K21,N21,P21,B21)</f>
         <v>108</v>
       </c>
       <c r="S21" s="6">
-        <f>SUM(D21,F21,H21,J21,L21,M21,O21,Q21,R21)</f>
+        <f t="shared" ref="S21:S30" si="3">SUM(D21,F21,H21,J21,L21,M21,O21,Q21,R21)</f>
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>52</v>
       </c>
@@ -1908,15 +1908,15 @@
         <v>2</v>
       </c>
       <c r="R22" s="6">
-        <f>SUM(C22,E22,G22,I22,K22,N22,P22,B22)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S22" s="6">
-        <f>SUM(D22,F22,H22,J22,L22,M22,O22,Q22,R22)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
         <v>53</v>
       </c>
@@ -1969,15 +1969,15 @@
         <v>1</v>
       </c>
       <c r="R23" s="6">
-        <f>SUM(C23,E23,G23,I23,K23,N23,P23,B23)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="S23" s="6">
-        <f>SUM(D23,F23,H23,J23,L23,M23,O23,Q23,R23)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
@@ -2030,15 +2030,15 @@
         <v>0</v>
       </c>
       <c r="R24" s="6">
-        <f>SUM(C24,E24,G24,I24,K24,N24,P24,B24)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="S24" s="6">
-        <f>SUM(D24,F24,H24,J24,L24,M24,O24,Q24,R24)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>55</v>
       </c>
@@ -2091,15 +2091,15 @@
         <v>2</v>
       </c>
       <c r="R25" s="6">
-        <f>SUM(C25,E25,G25,I25,K25,N25,P25,B25)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S25" s="6">
-        <f>SUM(D25,F25,H25,J25,L25,M25,O25,Q25,R25)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>56</v>
       </c>
@@ -2152,15 +2152,15 @@
         <v>3</v>
       </c>
       <c r="R26" s="6">
-        <f>SUM(C26,E26,G26,I26,K26,N26,P26,B26)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S26" s="6">
-        <f>SUM(D26,F26,H26,J26,L26,M26,O26,Q26,R26)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>57</v>
       </c>
@@ -2213,15 +2213,15 @@
         <v>1</v>
       </c>
       <c r="R27" s="6">
-        <f>SUM(C27,E27,G27,I27,K27,N27,P27,B27)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S27" s="6">
-        <f>SUM(D27,F27,H27,J27,L27,M27,O27,Q27,R27)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>58</v>
       </c>
@@ -2274,15 +2274,15 @@
         <v>2</v>
       </c>
       <c r="R28" s="6">
-        <f>SUM(C28,E28,G28,I28,K28,N28,P28,B28)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="S28" s="6">
-        <f>SUM(D28,F28,H28,J28,L28,M28,O28,Q28,R28)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>59</v>
       </c>
@@ -2335,15 +2335,15 @@
         <v>7</v>
       </c>
       <c r="R29" s="6">
-        <f>SUM(C29,E29,G29,I29,K29,N29,P29,B29)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="S29" s="6">
-        <f>SUM(D29,F29,H29,J29,L29,M29,O29,Q29,R29)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>60</v>
       </c>
@@ -2396,21 +2396,21 @@
         <v>43</v>
       </c>
       <c r="R30" s="6">
-        <f>SUM(C30,E30,G30,I30,K30,N30,P30,B30)</f>
+        <f t="shared" si="2"/>
         <v>515</v>
       </c>
       <c r="S30" s="6">
-        <f>SUM(D30,F30,H30,J30,L30,M30,O30,Q30,R30)</f>
+        <f t="shared" si="3"/>
         <v>860</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>61</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>62</v>
       </c>
@@ -2532,17 +2532,17 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="6"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>64</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="4" customFormat="1" ht="7.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
@@ -2683,7 +2683,7 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="1:19" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>66</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="41" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>65</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
       <c r="B42" s="2"/>
       <c r="C42" s="6"/>
@@ -2788,13 +2788,13 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
         <v>68</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2876,14 +2876,14 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
     </row>
-    <row r="46" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="2"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
         <v>70</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2964,7 +2964,7 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
     </row>
-    <row r="49" spans="1:19" s="4" customFormat="1" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="4" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
     </row>
-    <row r="50" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>72</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
         <v>73</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>92</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
     </row>
-    <row r="53" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>93</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3214,7 +3214,7 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
     </row>
-    <row r="55" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3235,7 +3235,7 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
     </row>
-    <row r="56" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>49</v>
       </c>
@@ -3294,14 +3294,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="2"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>75</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3382,7 +3382,7 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
     </row>
-    <row r="60" spans="1:19" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>76</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
     </row>
-    <row r="61" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
         <v>77</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3487,13 +3487,13 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
     </row>
-    <row r="63" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B63" s="18"/>
     </row>
-    <row r="64" spans="1:19" s="4" customFormat="1" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="4" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
         <v>27</v>
       </c>
@@ -3554,19 +3554,19 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
       <c r="B65" s="6"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="2"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>29</v>
       </c>
@@ -3627,12 +3627,12 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="6"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>79</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
         <v>80</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="4" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="4" customFormat="1" ht="8.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3737,7 +3737,7 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
     </row>
-    <row r="72" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
         <v>28</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
     </row>
-    <row r="73" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
         <v>81</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3842,7 +3842,7 @@
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
     </row>
-    <row r="75" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>49</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>30</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="s">
         <v>31</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>82</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="12" t="s">
         <v>83</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="9"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
@@ -4128,7 +4128,7 @@
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="33.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>32</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="82" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="s">
         <v>84</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="s">
         <v>85</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="9"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
@@ -4240,7 +4240,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:19" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>33</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
     </row>
-    <row r="86" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>86</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="s">
         <v>34</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
@@ -4366,7 +4366,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="s">
         <v>88</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
@@ -4471,7 +4471,7 @@
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
     </row>
-    <row r="92" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
         <v>89</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="s">
         <v>90</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
@@ -4576,7 +4576,7 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>49</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
@@ -4656,7 +4656,7 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
         <v>22</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
     </row>
-    <row r="98" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="4" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="12" t="s">
         <v>19</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>18</v>
       </c>
@@ -4801,12 +4801,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="9"/>
       <c r="B100" s="2"/>
       <c r="R100" s="6"/>
     </row>
-    <row r="101" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
         <v>23</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
     </row>
-    <row r="102" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="12" t="s">
         <v>19</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="11" t="s">
         <v>18</v>
       </c>
@@ -4951,12 +4951,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="2"/>
       <c r="R104" s="6"/>
     </row>
-    <row r="105" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="17" t="s">
         <v>24</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="6"/>
     </row>
-    <row r="106" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="11" t="s">
         <v>17</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>18</v>
       </c>
@@ -5100,12 +5100,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="R108" s="6"/>
     </row>
-    <row r="109" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="17" t="s">
         <v>25</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="6"/>
     </row>
-    <row r="110" spans="1:19" s="4" customFormat="1" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="4" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="12" t="s">
         <v>17</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="4" customFormat="1" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="4" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="11" t="s">
         <v>18</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
         <v>91</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
         <v>19</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="114" spans="1:19" s="4" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="4" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="11" t="s">
         <v>18</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5414,7 +5414,7 @@
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
     </row>
-    <row r="116" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5432,7 +5432,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="6"/>
     </row>
-    <row r="117" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>49</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="9"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5511,7 +5511,7 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="6"/>
     </row>
-    <row r="119" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>94</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="R119" s="6"/>
       <c r="S119" s="3"/>
     </row>
-    <row r="120" spans="1:19" s="4" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="4" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="11" t="s">
         <v>19</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="12" t="s">
         <v>18</v>
       </c>
@@ -5655,14 +5655,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B122" s="3"/>
       <c r="R122" s="6"/>
     </row>
-    <row r="123" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="12" t="s">
         <v>17</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="12" t="s">
         <v>18</v>
       </c>
@@ -5784,14 +5784,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B125" s="2"/>
       <c r="R125" s="6"/>
     </row>
-    <row r="126" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="11" t="s">
         <v>19</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="11" t="s">
         <v>18</v>
       </c>
@@ -5913,14 +5913,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B128" s="19"/>
       <c r="R128" s="6"/>
     </row>
-    <row r="129" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="11" t="s">
         <v>19</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="11" t="s">
         <v>18</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
         <v>98</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
     </row>
-    <row r="132" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="11" t="s">
         <v>19</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="11" t="s">
         <v>18</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="9"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
@@ -6207,12 +6207,12 @@
       <c r="Q134" s="6"/>
       <c r="S134" s="6"/>
     </row>
-    <row r="135" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="5"/>
       <c r="B135" s="2"/>
       <c r="R135" s="6"/>
     </row>
-    <row r="136" spans="1:19" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="10"/>
       <c r="B136" s="6"/>
       <c r="C136" s="2"/>
@@ -6233,7 +6233,7 @@
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
     </row>
-    <row r="137" spans="1:19" s="4" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="10"/>
       <c r="B137" s="6"/>
       <c r="C137" s="3"/>
@@ -6254,29 +6254,29 @@
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
     </row>
-    <row r="139" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="15"/>
       <c r="B139" s="19"/>
     </row>
-    <row r="140" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="15"/>
       <c r="B140" s="19"/>
     </row>
-    <row r="141" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="17"/>
       <c r="B141" s="6"/>
       <c r="R141" s="6"/>
     </row>
-    <row r="142" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="10"/>
       <c r="B142" s="6"/>
       <c r="R142" s="6"/>
     </row>
-    <row r="143" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="3"/>
     </row>
-    <row r="144" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="10"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -6297,12 +6297,12 @@
       <c r="R144" s="6"/>
       <c r="S144" s="6"/>
     </row>
-    <row r="145" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="R145" s="6"/>
     </row>
-    <row r="146" spans="1:19" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="9"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
@@ -6323,23 +6323,23 @@
       <c r="R146" s="6"/>
       <c r="S146" s="6"/>
     </row>
-    <row r="147" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R147" s="6"/>
     </row>
-    <row r="148" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O148" s="16"/>
     </row>
-    <row r="149" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="10"/>
       <c r="B149" s="6"/>
       <c r="R149" s="6"/>
     </row>
-    <row r="150" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="9"/>
       <c r="B150" s="2"/>
       <c r="R150" s="6"/>
     </row>
-    <row r="151" spans="1:19" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="5"/>
@@ -6360,7 +6360,7 @@
       <c r="R151" s="5"/>
       <c r="S151" s="2"/>
     </row>
-    <row r="152" spans="1:19" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="2"/>
       <c r="C152" s="5"/>
@@ -6381,7 +6381,7 @@
       <c r="R152" s="5"/>
       <c r="S152" s="2"/>
     </row>
-    <row r="153" spans="1:19" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
@@ -6402,7 +6402,7 @@
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
     </row>
-    <row r="154" spans="1:19" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="2"/>
       <c r="C154" s="5"/>
@@ -6423,7 +6423,7 @@
       <c r="R154" s="5"/>
       <c r="S154" s="2"/>
     </row>
-    <row r="155" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="10"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -6444,7 +6444,7 @@
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
     </row>
-    <row r="156" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="12"/>
       <c r="B156" s="19"/>
       <c r="C156" s="6"/>
@@ -6465,11 +6465,11 @@
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
     </row>
-    <row r="157" spans="1:19" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:19" s="4" customFormat="1" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="4" customFormat="1" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="12"/>
       <c r="B158" s="19"/>
       <c r="C158" s="6"/>
@@ -6489,7 +6489,7 @@
       <c r="Q158" s="6"/>
       <c r="S158" s="6"/>
     </row>
-    <row r="159" spans="1:19" s="4" customFormat="1" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="4" customFormat="1" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="10"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -6510,11 +6510,11 @@
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
     </row>
-    <row r="160" spans="1:19" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="1:19" s="4" customFormat="1" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="4" customFormat="1" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="10"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -6534,12 +6534,12 @@
       <c r="Q161" s="6"/>
       <c r="S161" s="6"/>
     </row>
-    <row r="162" spans="1:19" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="2"/>
       <c r="R162" s="6"/>
     </row>
-    <row r="163" spans="1:19" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="10"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -6559,10 +6559,10 @@
       <c r="Q163" s="6"/>
       <c r="S163" s="6"/>
     </row>
-    <row r="164" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:19" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
       <c r="B165" s="18"/>
       <c r="C165" s="6"/>
@@ -6583,7 +6583,7 @@
       <c r="R165" s="6"/>
       <c r="S165" s="6"/>
     </row>
-    <row r="166" spans="1:19" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13"/>
       <c r="B166" s="18"/>
       <c r="C166" s="6"/>
@@ -6604,12 +6604,12 @@
       <c r="R166" s="6"/>
       <c r="S166" s="6"/>
     </row>
-    <row r="167" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="R167" s="6"/>
     </row>
-    <row r="168" spans="1:19" s="8" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" s="8" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="13"/>
       <c r="B168" s="18"/>
       <c r="C168" s="6"/>
@@ -6630,7 +6630,7 @@
       <c r="R168" s="6"/>
       <c r="S168" s="6"/>
     </row>
-    <row r="169" spans="1:19" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="5"/>
       <c r="B169" s="2"/>
       <c r="C169" s="6"/>
@@ -6651,19 +6651,19 @@
       <c r="R169" s="6"/>
       <c r="S169" s="6"/>
     </row>
-    <row r="170" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="10"/>
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R171" s="6"/>
     </row>
-    <row r="172" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="5"/>
       <c r="B172" s="2"/>
       <c r="R172" s="6"/>
     </row>
-    <row r="173" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="10"/>
       <c r="B173" s="6"/>
       <c r="C173" s="3"/>
@@ -6684,129 +6684,129 @@
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
     </row>
-    <row r="174" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="5"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="10"/>
       <c r="B176" s="6"/>
       <c r="R176" s="6"/>
     </row>
-    <row r="177" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R177" s="6"/>
     </row>
-    <row r="178" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="10"/>
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="10"/>
       <c r="B180" s="6"/>
       <c r="R180" s="6"/>
     </row>
-    <row r="181" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="10"/>
       <c r="B181" s="6"/>
       <c r="R181" s="6"/>
     </row>
-    <row r="182" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="10"/>
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="10"/>
       <c r="B183" s="6"/>
       <c r="R183" s="6"/>
     </row>
-    <row r="184" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R184" s="6"/>
     </row>
-    <row r="185" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14"/>
       <c r="R185" s="6"/>
     </row>
-    <row r="186" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14"/>
     </row>
-    <row r="187" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R188" s="6"/>
     </row>
-    <row r="189" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="15"/>
       <c r="B189" s="19"/>
       <c r="R189" s="6"/>
     </row>
-    <row r="190" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="12"/>
       <c r="B190" s="19"/>
     </row>
-    <row r="191" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="12"/>
       <c r="B191" s="19"/>
     </row>
-    <row r="192" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R192" s="6"/>
     </row>
-    <row r="193" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
       <c r="B193" s="6"/>
       <c r="R193" s="6"/>
     </row>
-    <row r="194" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="10"/>
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="10"/>
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="10"/>
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="10"/>
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="10"/>
       <c r="B200" s="6"/>
       <c r="R200" s="6"/>
     </row>
-    <row r="201" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="15"/>
       <c r="B201" s="19"/>
     </row>
-    <row r="202" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14"/>
     </row>
-    <row r="203" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14"/>
     </row>
-    <row r="204" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14"/>
     </row>
-    <row r="207" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14"/>
     </row>
   </sheetData>
@@ -6826,7 +6826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6840,7 +6840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
